--- a/MARIASI PAKINI  PUB.xlsx
+++ b/MARIASI PAKINI  PUB.xlsx
@@ -4,22 +4,34 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" tabRatio="739" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER 20" sheetId="1" r:id="rId1"/>
     <sheet name="DECEMBER 20" sheetId="2" r:id="rId2"/>
     <sheet name="JANUARY 21" sheetId="3" r:id="rId3"/>
+    <sheet name="FEB 21" sheetId="4" r:id="rId4"/>
+    <sheet name="MARCH 21" sheetId="5" r:id="rId5"/>
+    <sheet name="APRIL 21" sheetId="6" r:id="rId6"/>
+    <sheet name="MAY 21" sheetId="7" r:id="rId7"/>
+    <sheet name="JUNE 21" sheetId="8" r:id="rId8"/>
+    <sheet name="JULY 21" sheetId="9" r:id="rId9"/>
+    <sheet name="AUGUST 21" sheetId="10" r:id="rId10"/>
+    <sheet name="SEPTEMBER 21" sheetId="11" r:id="rId11"/>
+    <sheet name="OCTOBER 21" sheetId="12" r:id="rId12"/>
+    <sheet name="NOVEMBER 21" sheetId="13" r:id="rId13"/>
+    <sheet name="DECEMBER 21" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
-  <calcPr calcId="144525" iterate="1" iterateCount="300"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="55">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -121,6 +133,69 @@
   </si>
   <si>
     <t>JANUARY</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF FEBRUARY 2021</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF MARCH 2021</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF APRIL 2021</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF MAY 2021</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF JUNE 2021</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF JULY 2021</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF AUGUST 2021</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF SEPTEMBER 2021</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF OCTOBER 2021</t>
+  </si>
+  <si>
+    <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF NOVEMBER 2021</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
 </sst>
 </file>
@@ -375,6 +450,12 @@
       <sheetName val="APRIL21"/>
       <sheetName val="MAY 21"/>
       <sheetName val="JUNE 21"/>
+      <sheetName val="JULY 21"/>
+      <sheetName val="AUGUST 21"/>
+      <sheetName val="SEPT 21"/>
+      <sheetName val="OCTOBER 21"/>
+      <sheetName val="NOVEMBER 21"/>
+      <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -563,6 +644,12 @@
         </row>
       </sheetData>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1358,6 +1445,2500 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'JULY 21'!H5:H10</f>
+        <v>4546000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>4716000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>4716000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'JULY 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'JULY 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'JULY 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'JULY 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'JULY 21'!H10:H15</f>
+        <v>4546000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>4716000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4716000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'JULY 21'!E26</f>
+        <v>1199880</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'JULY 21'!I26</f>
+        <v>-330120.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1357980</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1357980</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-342020.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-342020.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'AUGUST 21'!H5:H10</f>
+        <v>4716000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>4886000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>4886000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'AUGUST 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'AUGUST 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'AUGUST 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'AUGUST 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'AUGUST 21'!H10:H15</f>
+        <v>4716000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>4886000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4886000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'AUGUST 21'!E26</f>
+        <v>1357980</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'AUGUST 21'!I26</f>
+        <v>-342020.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1516080</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1516080</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-353920.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-353920.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'SEPTEMBER 21'!H5:H10</f>
+        <v>4886000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>5056000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>5056000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'SEPTEMBER 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'SEPTEMBER 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'SEPTEMBER 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'SEPTEMBER 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'SEPTEMBER 21'!H10:H15</f>
+        <v>4886000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>5056000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>5056000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'SEPTEMBER 21'!E26</f>
+        <v>1516080</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'SEPTEMBER 21'!I26</f>
+        <v>-353920.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1674180</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1674180</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-365820.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-365820.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'OCTOBER 21'!H5:H10</f>
+        <v>5056000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>5226000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>5226000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(D5:D9)</f>
+        <v>5056000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>5226000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>5226000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'OCTOBER 21'!E26</f>
+        <v>1674180</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'OCTOBER 21'!I26</f>
+        <v>-365820.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1832280</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1832280</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-377720.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-377720.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'NOVEMBER 21'!H5:H10</f>
+        <v>5226000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>5396000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>5396000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'NOVEMBER 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'NOVEMBER 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'NOVEMBER 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'NOVEMBER 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM(D5:D9)</f>
+        <v>5226000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>5396000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>5396000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'NOVEMBER 21'!E26</f>
+        <v>1832280</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'NOVEMBER 21'!I26</f>
+        <v>-377720.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1990380</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1990380</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-389620.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-389620.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
@@ -1854,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,4 +4916,3005 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'JANUARY 21'!H5:H10</f>
+        <v>3526000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>3696000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>3696000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'JANUARY 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'JANUARY 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'JANUARY 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'JANUARY 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'JANUARY 21'!H10:H15</f>
+        <v>3526000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>3696000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f>SUM(H5:H9)</f>
+        <v>3696000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'JANUARY 21'!E26</f>
+        <v>251280</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="28">
+        <f>'JANUARY 21'!I26</f>
+        <v>-258720.00000000003</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>409380</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>409380</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G17-H21</f>
+        <v>-270620.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-270620.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'FEB 21'!H5:H10</f>
+        <v>3696000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>3866000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>3866000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'FEB 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'FEB 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'FEB 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'FEB 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'FEB 21'!H10:H15</f>
+        <v>3696000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>3866000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>3866000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'FEB 21'!E26</f>
+        <v>409380</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'FEB 21'!I26</f>
+        <v>-270620.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>567480</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>567480</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-282520.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-282520.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'MARCH 21'!H5:H10</f>
+        <v>3866000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>4036000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>4036000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'MARCH 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'MARCH 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'MARCH 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'MARCH 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'MARCH 21'!H10:H15</f>
+        <v>3866000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>4036000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4036000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'MARCH 21'!E26</f>
+        <v>567480</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'MARCH 21'!I26</f>
+        <v>-282520.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>725580</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>725580</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-294420.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-294420.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'APRIL 21'!H5:H10</f>
+        <v>4036000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>4206000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>4206000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'APRIL 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'APRIL 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'APRIL 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'APRIL 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'APRIL 21'!H10:H15</f>
+        <v>4036000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>4206000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4206000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'APRIL 21'!E26</f>
+        <v>725580</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'APRIL 21'!I26</f>
+        <v>-294420.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>883680</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>883680</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-306320.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-306320.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'MAY 21'!H5:H10</f>
+        <v>4206000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>4376000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>4376000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'MAY 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'MAY 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'MAY 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'MAY 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'MAY 21'!H10:H15</f>
+        <v>4206000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>4376000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4376000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'MAY 21'!E26</f>
+        <v>883680</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'MAY 21'!I26</f>
+        <v>-306320.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1041780</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1041780</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-318220.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-318220.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f>'JUNE 21'!H5:H10</f>
+        <v>4376000</v>
+      </c>
+      <c r="E5" s="5">
+        <v>170000</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5+D5+E5</f>
+        <v>4546000</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="9">
+        <f>F5-G5</f>
+        <v>4546000</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f>'JUNE 21'!H6:H11</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9">
+        <f>C6+D6+E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9">
+        <f>F6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f>'JUNE 21'!H7:H12</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9">
+        <f>C7+D7+E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9">
+        <f>F7-G7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>'JUNE 21'!H8:H13</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9">
+        <f>C8+D8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>'JUNE 21'!H9:H14</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9">
+        <f>C9+D9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9">
+        <f>F9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10:I10" si="0">SUM(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <f>'JUNE 21'!H10:H15</f>
+        <v>4376000</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>4546000</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>4546000</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="9">
+        <f>[1]SEPTEMBER20!H11:H16</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="28">
+        <f>E10</f>
+        <v>170000</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="28">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="28">
+        <f>'JUNE 21'!E26</f>
+        <v>1041780</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="28">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
+        <f>'JUNE 21'!I26</f>
+        <v>-318220.00000000006</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <f>C21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H21" s="11">
+        <f>G21*C16</f>
+        <v>11900.000000000002</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="14">
+        <f>C16+C19+C17-D21</f>
+        <v>1199880</v>
+      </c>
+      <c r="D26" s="14">
+        <f>SUM(D22:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <f>C26-D26</f>
+        <v>1199880</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="14">
+        <f>G16+G19-H21</f>
+        <v>-330120.00000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <f>SUM(H22:H25)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="14">
+        <f>G26-H26</f>
+        <v>-330120.00000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>